--- a/BriefTasks 2013-07-11.xlsx
+++ b/BriefTasks 2013-07-11.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="132">
   <si>
     <t>Section</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>Sort out how to deal with footnotes in figures</t>
+  </si>
+  <si>
+    <t>Stu</t>
   </si>
 </sst>
 </file>
@@ -1295,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2146,6 +2149,9 @@
       <c r="B44" s="28" t="s">
         <v>71</v>
       </c>
+      <c r="C44" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="G44" s="1" t="s">
         <v>17</v>
       </c>
@@ -2561,7 +2567,7 @@
         <v>98</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D66" s="3">
         <v>41455</v>
@@ -2581,7 +2587,7 @@
         <v>115</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D67" s="3">
         <v>41457</v>
